--- a/storage/exports/Cotizacion.xlsx
+++ b/storage/exports/Cotizacion.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>BuhoCorp-Antares</t>
   </si>
@@ -34,7 +34,7 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>2018-12-10 00:00:00</t>
+    <t>2018-12-11 00:00:00</t>
   </si>
   <si>
     <t>Sitio Web: www.buhocorp.com</t>
@@ -43,7 +43,7 @@
     <t>VALIDO HASTA</t>
   </si>
   <si>
-    <t>2018-12-17 00:00:00</t>
+    <t>2018-12-05 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Teléfono: </t>
@@ -97,10 +97,41 @@
     <t>Gracias por hacer negocios con nosotros!</t>
   </si>
   <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>teclado</t>
+    <t>Calculad.Ecal TC028 11x15*</t>
+  </si>
+  <si>
+    <t>Carp.[Base opaca] A4 B.Plus(20)
+Carp.[Base opaca] A4 B.Plus(20)</t>
+  </si>
+  <si>
+    <t>Carp.[con folios] The-Pel A4 x10[6020]</t>
+  </si>
+  <si>
+    <t>Carp.colgante JR plast.amarillo[A181](50)</t>
+  </si>
+  <si>
+    <t>Calculad.Ecal TC010 14x14*</t>
+  </si>
+  <si>
+    <t>Cart.p/epson T115 negro</t>
+  </si>
+  <si>
+    <t>Fichero metálico Nº1 [P/300 fichas 1]</t>
+  </si>
+  <si>
+    <t>Nota adh.Simball banderita fluo x5(50)</t>
+  </si>
+  <si>
+    <t>Pizarra Faber Kit+8colores+borrador</t>
+  </si>
+  <si>
+    <t>Pizarra Olami Blanca Laminada 60x90cm</t>
+  </si>
+  <si>
+    <t>Pizarra Olami Corcho Aluminio 60x90cm</t>
+  </si>
+  <si>
+    <t>Pizarra Onix Blanca Magnetica 45x60cm</t>
   </si>
 </sst>
 </file>
@@ -962,76 +993,116 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:12" customHeight="1" ht="16.5">
-      <c r="A19" s="23"/>
+      <c r="A19" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="16.5">
-      <c r="A20" s="23"/>
+      <c r="A20" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:12" customHeight="1" ht="18">
-      <c r="A21" s="23"/>
+      <c r="A21" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" s="23"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="37">
+        <v>1</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="23"/>
+      <c r="A22" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" s="23"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="37">
+        <v>2</v>
+      </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="23"/>
+      <c r="A23" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="23"/>
-      <c r="C23" s="37"/>
+      <c r="C23" s="37">
+        <v>2</v>
+      </c>
       <c r="E23" s="16"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="23"/>
+      <c r="A24" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="B24" s="23"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="37">
+        <v>2</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="23"/>
+      <c r="A25" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="37">
+        <v>2</v>
+      </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="23"/>
+      <c r="A26" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="B26" s="23"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="37">
+        <v>2</v>
+      </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="23"/>
+      <c r="A27" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="B27" s="23"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="37">
+        <v>3</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="23"/>
+      <c r="A28" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" s="23"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="37">
+        <v>30</v>
+      </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="G28" s="11"/>
